--- a/src/main/resources/School_Data.xlsx
+++ b/src/main/resources/School_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jared.boleyn\Documents\GitHub\ncaa-06-scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA85BAE-5E18-4A39-9A2A-5BB1A134294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4535FE76-AC7D-45D1-9C09-B81ED0C4AAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{AD84723E-ACBC-4464-9CF8-5905B5C1FD78}"/>
+    <workbookView xWindow="9840" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{AD84723E-ACBC-4464-9CF8-5905B5C1FD78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="554">
   <si>
     <t>TGID</t>
   </si>
@@ -957,9 +957,6 @@
     <t>#FA4616</t>
   </si>
   <si>
-    <t>https://teamcolorcodes.com/wp-content/uploads/2016/08/Florida-Gators-Logo-PNG.png</t>
-  </si>
-  <si>
     <t>Bulldogs</t>
   </si>
   <si>
@@ -1425,33 +1422,6 @@
     <t>Paladins</t>
   </si>
   <si>
-    <t>Wofford</t>
-  </si>
-  <si>
-    <t>Terriers</t>
-  </si>
-  <si>
-    <t>Wright State</t>
-  </si>
-  <si>
-    <t>Raiders</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>Musketeers</t>
-  </si>
-  <si>
-    <t>Yale</t>
-  </si>
-  <si>
-    <t>Youngstown State</t>
-  </si>
-  <si>
-    <t>Penguins</t>
-  </si>
-  <si>
     <t>Rival 6</t>
   </si>
   <si>
@@ -1459,6 +1429,264 @@
   </si>
   <si>
     <t>Rival 8</t>
+  </si>
+  <si>
+    <t>#D4BF91</t>
+  </si>
+  <si>
+    <t>#005BBB</t>
+  </si>
+  <si>
+    <t>#8A8D8F</t>
+  </si>
+  <si>
+    <t>#002E5D</t>
+  </si>
+  <si>
+    <t>#1E4D2B</t>
+  </si>
+  <si>
+    <t>#C8C372</t>
+  </si>
+  <si>
+    <t>#A7A8AA</t>
+  </si>
+  <si>
+    <t>#00853E</t>
+  </si>
+  <si>
+    <t>#A6192E</t>
+  </si>
+  <si>
+    <t>#CF0A2C</t>
+  </si>
+  <si>
+    <t>#CAC8C8</t>
+  </si>
+  <si>
+    <t>#807F84</t>
+  </si>
+  <si>
+    <t>#FFC425</t>
+  </si>
+  <si>
+    <t>#492F24</t>
+  </si>
+  <si>
+    <t>#BA9B37</t>
+  </si>
+  <si>
+    <t>#592A8A</t>
+  </si>
+  <si>
+    <t>#FDC82F</t>
+  </si>
+  <si>
+    <t>#898D8D</t>
+  </si>
+  <si>
+    <t>#C1C6C8</t>
+  </si>
+  <si>
+    <t>#FFAB00</t>
+  </si>
+  <si>
+    <t>#006341</t>
+  </si>
+  <si>
+    <t>#CC8A00</t>
+  </si>
+  <si>
+    <t>#C60C30</t>
+  </si>
+  <si>
+    <t>#1E1E1E</t>
+  </si>
+  <si>
+    <t>#0066CC</t>
+  </si>
+  <si>
+    <t>#081E3F</t>
+  </si>
+  <si>
+    <t>#B6862C</t>
+  </si>
+  <si>
+    <t>#002F8B</t>
+  </si>
+  <si>
+    <t>#E31B23</t>
+  </si>
+  <si>
+    <t>#418FDE</t>
+  </si>
+  <si>
+    <t>#002D72</t>
+  </si>
+  <si>
+    <t>#A89968</t>
+  </si>
+  <si>
+    <t>#FE5000</t>
+  </si>
+  <si>
+    <t>#4F2C1D</t>
+  </si>
+  <si>
+    <t>#002664</t>
+  </si>
+  <si>
+    <t>#EAAB00</t>
+  </si>
+  <si>
+    <t>#B61E2E</t>
+  </si>
+  <si>
+    <t>#6A0032</t>
+  </si>
+  <si>
+    <t>#FFC82E</t>
+  </si>
+  <si>
+    <t>#006633</t>
+  </si>
+  <si>
+    <t>#00694E</t>
+  </si>
+  <si>
+    <t>#CDA077</t>
+  </si>
+  <si>
+    <t>#15397F</t>
+  </si>
+  <si>
+    <t>#FFDA00</t>
+  </si>
+  <si>
+    <t>#6C4023</t>
+  </si>
+  <si>
+    <t>#B5A167</t>
+  </si>
+  <si>
+    <t>#D64309</t>
+  </si>
+  <si>
+    <t>#024731</t>
+  </si>
+  <si>
+    <t>#0055A2</t>
+  </si>
+  <si>
+    <t>#E5A823</t>
+  </si>
+  <si>
+    <t>#00263A</t>
+  </si>
+  <si>
+    <t>#8A2432</t>
+  </si>
+  <si>
+    <t>#B3B5B8</t>
+  </si>
+  <si>
+    <t>#840029</t>
+  </si>
+  <si>
+    <t>#FDB913</t>
+  </si>
+  <si>
+    <t>#CE181E</t>
+  </si>
+  <si>
+    <t>#0A0203</t>
+  </si>
+  <si>
+    <t>#CC092F</t>
+  </si>
+  <si>
+    <t>#222222</t>
+  </si>
+  <si>
+    <t>#FFCC00</t>
+  </si>
+  <si>
+    <t>#011E41</t>
+  </si>
+  <si>
+    <t>#A3AAAE</t>
+  </si>
+  <si>
+    <t>#861F41</t>
+  </si>
+  <si>
+    <t>#97999B</t>
+  </si>
+  <si>
+    <t>#DB0032</t>
+  </si>
+  <si>
+    <t>#002E6D</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/3/36/Arkansas_State_Red_Wolves_logo.svg/224px-Arkansas_State_Red_Wolves_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2a/Central_Michigan_Chippewas_logo.svg/320px-Central_Michigan_Chippewas_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c1/Eastern_Michigan_Eagles_logo.svg/211px-Eastern_Michigan_Eagles_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/4/40/Florida_Atlantic_Owls_logo.svg/320px-Florida_Atlantic_Owls_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/1/14/Florida_Gators_gator_logo.svg/320px-Florida_Gators_gator_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/1/1d/FIU_Panthers_logo.svg/185px-FIU_Panthers_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/8/86/Louisiana_Tech_Athletics_logo.svg/320px-Louisiana_Tech_Athletics_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/2/21/Nevada_Wolf_Pack_logo.svg/320px-Nevada_Wolf_Pack_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/4/45/New_Mexico_Lobos_logo.svg/195px-New_Mexico_Lobos_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/c/c8/New_Mexico_State_Aggies_logo.svg/320px-New_Mexico_State_Aggies_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Rice_Owls_logo.svg/200px-Rice_Owls_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/33/SMU_Mustang_logo.svg/320px-SMU_Mustang_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Temple_T_logo.svg/212px-Temple_T_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/34/Troy_Trojans_logo.svg/213px-Troy_Trojans_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/f/ff/UAB_Blazers_logo.svg/283px-UAB_Blazers_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fd/UCF_Knights_logo.svg/299px-UCF_Knights_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f6/UNLV_Rebels_wordmark.svg/320px-UNLV_Rebels_wordmark.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/c/c1/South_Florida_Bulls_logo.svg/300px-South_Florida_Bulls_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/0/06/UTEP_Miners_logo.svg/238px-UTEP_Miners_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/a/a6/Western_Michigan_Broncos_logo.svg/318px-Western_Michigan_Broncos_logo.svg.png</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11B627A-E057-4C54-9687-7444D7F605CA}">
-  <dimension ref="A1:BB1121"/>
+  <dimension ref="A1:BB1115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2007,13 +2235,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -2057,41 +2285,37 @@
     </row>
     <row r="2" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>354</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>16</v>
+        <v>174</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
+        <v>355</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>21</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -2136,38 +2360,32 @@
     </row>
     <row r="3" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>406</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>27</v>
+        <v>407</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -2213,39 +2431,41 @@
     </row>
     <row r="4" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
@@ -2290,35 +2510,33 @@
     </row>
     <row r="5" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>40</v>
+        <v>243</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -2365,41 +2583,33 @@
     </row>
     <row r="6" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>45</v>
+        <v>243</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>48</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -2443,37 +2653,37 @@
     </row>
     <row r="7" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>51</v>
+        <v>187</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -2520,41 +2730,37 @@
     </row>
     <row r="8" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>369</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>427</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>56</v>
+        <v>534</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -2599,38 +2805,36 @@
     </row>
     <row r="9" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>343</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>468</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>18</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -2676,36 +2880,38 @@
     </row>
     <row r="10" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>55</v>
+        <v>298</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -2751,41 +2957,35 @@
     </row>
     <row r="11" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>69</v>
+        <v>410</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
@@ -2830,36 +3030,38 @@
     </row>
     <row r="12" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>55</v>
+        <v>192</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -2905,39 +3107,41 @@
     </row>
     <row r="13" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>55</v>
+        <v>297</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>84</v>
+        <v>297</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="15"/>
+        <v>289</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
@@ -2982,39 +3186,41 @@
     </row>
     <row r="14" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
@@ -3059,50 +3265,38 @@
     </row>
     <row r="15" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>348</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>354</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>500</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>92</v>
+        <v>501</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>93</v>
+        <v>412</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>94</v>
+        <v>413</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
@@ -3144,44 +3338,40 @@
     </row>
     <row r="16" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>469</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>103</v>
+        <v>347</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>97</v>
+        <v>348</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="15" t="s">
         <v>106</v>
       </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="16"/>
@@ -3225,44 +3415,42 @@
     </row>
     <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>109</v>
+        <v>262</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>71</v>
+        <v>357</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>72</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="16"/>
@@ -3306,41 +3494,37 @@
     </row>
     <row r="18" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>115</v>
+        <v>252</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>118</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -3385,41 +3569,37 @@
     </row>
     <row r="19" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>376</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>122</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>123</v>
+        <v>549</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>124</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -3464,38 +3644,34 @@
     </row>
     <row r="20" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>414</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>415</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>26</v>
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>128</v>
+        <v>535</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>124</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -3541,41 +3717,37 @@
     </row>
     <row r="21" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>21</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
@@ -3620,44 +3792,42 @@
     </row>
     <row r="22" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>71</v>
+        <v>19</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>138</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="16"/>
@@ -3701,41 +3871,37 @@
     </row>
     <row r="23" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -3780,38 +3946,36 @@
     </row>
     <row r="24" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>359</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>146</v>
+        <v>472</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>147</v>
+        <v>473</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>148</v>
+        <v>360</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>139</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
@@ -3857,41 +4021,39 @@
     </row>
     <row r="25" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>155</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
@@ -3936,37 +4098,37 @@
     </row>
     <row r="26" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>157</v>
+        <v>483</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>158</v>
+        <v>484</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>105</v>
+        <v>376</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
@@ -4013,38 +4175,34 @@
     </row>
     <row r="27" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>417</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>161</v>
+        <v>507</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>162</v>
+        <v>536</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>90</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
@@ -4090,39 +4248,41 @@
     </row>
     <row r="28" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>166</v>
+        <v>538</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="15"/>
+        <v>304</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
@@ -4167,41 +4327,39 @@
     </row>
     <row r="29" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>167</v>
+        <v>31</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>153</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
@@ -4245,40 +4403,40 @@
     </row>
     <row r="30" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>154</v>
+        <v>372</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>533</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>173</v>
+        <v>395</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>155</v>
+        <v>386</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
@@ -4324,33 +4482,41 @@
     </row>
     <row r="31" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
@@ -4395,34 +4561,34 @@
     </row>
     <row r="32" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>180</v>
+        <v>38</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -4470,39 +4636,41 @@
     </row>
     <row r="33" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>357</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>515</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>183</v>
+        <v>400</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>90</v>
+        <v>372</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>70</v>
+        <v>361</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="L33" s="15"/>
+        <v>345</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>237</v>
+      </c>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
@@ -4547,33 +4715,35 @@
     </row>
     <row r="34" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J34" s="14"/>
+        <v>207</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -4620,38 +4790,34 @@
     </row>
     <row r="35" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>188</v>
+        <v>443</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>190</v>
+        <v>444</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>194</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
@@ -4697,39 +4863,41 @@
     </row>
     <row r="36" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="L36" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
@@ -4774,36 +4942,38 @@
     </row>
     <row r="37" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" s="15"/>
+        <v>98</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
@@ -4849,37 +5019,41 @@
     </row>
     <row r="38" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
@@ -4923,33 +5097,35 @@
     </row>
     <row r="39" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -4996,31 +5172,31 @@
     </row>
     <row r="40" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
@@ -5069,38 +5245,34 @@
     </row>
     <row r="41" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>57</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
@@ -5146,38 +5318,34 @@
     </row>
     <row r="42" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>225</v>
+        <v>418</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>226</v>
+        <v>502</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>227</v>
+        <v>503</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>228</v>
+        <v>419</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>192</v>
+        <v>405</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>144</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
       <c r="N42" s="15"/>
@@ -5223,35 +5391,41 @@
     </row>
     <row r="43" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="15"/>
+        <v>304</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
@@ -5296,38 +5470,36 @@
     </row>
     <row r="44" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>199</v>
+        <v>386</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>234</v>
+        <v>495</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>235</v>
+        <v>496</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>236</v>
+        <v>540</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>207</v>
+        <v>372</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>237</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="K44" s="15"/>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
       <c r="N44" s="15"/>
@@ -5373,41 +5545,39 @@
     </row>
     <row r="45" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>26</v>
+        <v>81</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>195</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
@@ -5452,37 +5622,41 @@
     </row>
     <row r="46" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
+        <v>187</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>303</v>
+      </c>
       <c r="M46" s="15"/>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
@@ -5527,34 +5701,38 @@
     </row>
     <row r="47" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
@@ -5600,33 +5778,41 @@
     </row>
     <row r="48" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>250</v>
+        <v>28</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>251</v>
+        <v>46</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
@@ -5671,38 +5857,44 @@
     </row>
     <row r="49" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>255</v>
+        <v>485</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>256</v>
+        <v>381</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="P49" s="16"/>
@@ -5746,36 +5938,38 @@
     </row>
     <row r="50" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K50" s="15"/>
+        <v>42</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
@@ -5821,34 +6015,38 @@
     </row>
     <row r="51" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>266</v>
+        <v>55</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>416</v>
+      </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
@@ -5893,36 +6091,38 @@
     </row>
     <row r="52" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="K52" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
@@ -5968,36 +6168,38 @@
     </row>
     <row r="53" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>70</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="K53" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
@@ -6043,33 +6245,35 @@
     </row>
     <row r="54" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>279</v>
+        <v>428</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>281</v>
+        <v>492</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>282</v>
+        <v>429</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>94</v>
+        <v>392</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="J54" s="14"/>
+        <v>365</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -6116,37 +6320,37 @@
     </row>
     <row r="55" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>284</v>
+        <v>165</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="J55" s="13" t="s">
-        <v>99</v>
+        <v>166</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
@@ -6193,37 +6397,41 @@
     </row>
     <row r="56" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
+        <v>191</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
@@ -6268,37 +6476,41 @@
     </row>
     <row r="57" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>293</v>
+        <v>168</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>263</v>
+        <v>139</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
+        <v>154</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
@@ -6343,38 +6555,44 @@
     </row>
     <row r="58" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
+      <c r="M58" s="15" t="s">
+        <v>207</v>
+      </c>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
       <c r="P58" s="16"/>
@@ -6417,40 +6635,40 @@
     </row>
     <row r="59" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>304</v>
+        <v>170</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
@@ -6496,38 +6714,34 @@
     </row>
     <row r="60" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>401</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>305</v>
+        <v>479</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>306</v>
+        <v>541</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>191</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="15"/>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="15"/>
@@ -6573,41 +6787,39 @@
     </row>
     <row r="61" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>309</v>
+        <v>474</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>310</v>
+        <v>542</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>35</v>
+        <v>365</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>298</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="L61" s="15"/>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
@@ -6652,41 +6864,35 @@
     </row>
     <row r="62" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>312</v>
+        <v>530</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>55</v>
+        <v>531</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>313</v>
+        <v>543</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>12</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
       <c r="M62" s="15"/>
       <c r="N62" s="15"/>
       <c r="O62" s="15"/>
@@ -6730,41 +6936,39 @@
     </row>
     <row r="63" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>315</v>
+        <v>52</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
@@ -6809,40 +7013,40 @@
     </row>
     <row r="64" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>318</v>
+        <v>24</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>298</v>
+        <v>57</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
@@ -6888,41 +7092,39 @@
     </row>
     <row r="65" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="G65" s="12" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L65" s="15" t="s">
-        <v>187</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="L65" s="15"/>
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
@@ -6967,44 +7169,38 @@
     </row>
     <row r="66" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>193</v>
+        <v>396</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>327</v>
+        <v>521</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>328</v>
+        <v>522</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="M66" s="15" t="s">
-        <v>84</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="P66" s="16"/>
@@ -7048,38 +7244,34 @@
     </row>
     <row r="67" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>411</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>331</v>
+        <v>125</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>12</v>
+        <v>409</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K67" s="15" t="s">
-        <v>31</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
@@ -7125,38 +7317,32 @@
     </row>
     <row r="68" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>334</v>
+        <v>175</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>337</v>
+        <v>177</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="I68" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
@@ -7202,44 +7388,50 @@
     </row>
     <row r="69" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>340</v>
-      </c>
       <c r="H69" s="13" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="K69" s="15" t="s">
-        <v>187</v>
+        <v>96</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="16"/>
@@ -7281,34 +7473,34 @@
     </row>
     <row r="70" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>55</v>
+        <v>508</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>342</v>
+        <v>509</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="J70" s="14"/>
-      <c r="K70" s="15"/>
+      <c r="K70" s="14"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
@@ -7354,32 +7546,36 @@
     </row>
     <row r="71" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>344</v>
+        <v>178</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="G71" s="12" t="s">
-        <v>345</v>
+        <v>181</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>346</v>
+        <v>139</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K71" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="K71" s="15"/>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="15"/>
@@ -7425,33 +7621,37 @@
     </row>
     <row r="72" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>347</v>
+        <v>225</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="G72" s="12" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K72" s="15" t="s">
-        <v>106</v>
+        <v>154</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
@@ -7498,44 +7698,36 @@
     </row>
     <row r="73" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="J73" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L73" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="M73" s="15" t="s">
-        <v>207</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
       <c r="N73" s="15"/>
       <c r="O73" s="15"/>
       <c r="P73" s="16"/>
@@ -7577,38 +7769,46 @@
       <c r="AZ73" s="20"/>
       <c r="BA73" s="21"/>
     </row>
-    <row r="74" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>328</v>
+      </c>
       <c r="H74" s="13" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>124</v>
+        <v>187</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M74" s="15"/>
+        <v>329</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="N74" s="15"/>
       <c r="O74" s="15"/>
       <c r="P74" s="16"/>
@@ -7652,33 +7852,35 @@
     </row>
     <row r="75" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="G75" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
+        <v>267</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="J75" s="14"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
       <c r="M75" s="15"/>
       <c r="N75" s="15"/>
       <c r="O75" s="15"/>
@@ -7723,37 +7925,37 @@
     </row>
     <row r="76" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>202</v>
+        <v>270</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G76" s="12" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>359</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
       <c r="M76" s="15"/>
       <c r="N76" s="15"/>
       <c r="O76" s="15"/>
@@ -7798,34 +8000,44 @@
     </row>
     <row r="77" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G77" s="12" t="s">
-        <v>361</v>
+        <v>103</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="N77" s="15"/>
       <c r="O77" s="15"/>
       <c r="P77" s="16"/>
@@ -7867,36 +8079,46 @@
       <c r="AZ77" s="20"/>
       <c r="BA77" s="21"/>
     </row>
-    <row r="78" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>363</v>
+        <v>107</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="H78" s="13" t="s">
-        <v>364</v>
+        <v>47</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>365</v>
+        <v>48</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>366</v>
+        <v>71</v>
       </c>
       <c r="K78" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="N78" s="15"/>
       <c r="O78" s="15"/>
       <c r="P78" s="16"/>
@@ -7940,33 +8162,37 @@
     </row>
     <row r="79" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>366</v>
+        <v>98</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>367</v>
+        <v>182</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G79" s="12" t="s">
-        <v>368</v>
+        <v>183</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>364</v>
+        <v>139</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>370</v>
+        <v>70</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
@@ -8013,34 +8239,36 @@
     </row>
     <row r="80" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="G80" s="12" t="s">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>373</v>
+        <v>201</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>374</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="K80" s="15"/>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
       <c r="N80" s="15"/>
@@ -8084,31 +8312,43 @@
       <c r="AZ80" s="20"/>
       <c r="BA80" s="21"/>
     </row>
-    <row r="81" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>374</v>
+        <v>111</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>326</v>
+        <v>112</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="H81" s="13" t="s">
-        <v>375</v>
+        <v>48</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="J81" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="15"/>
       <c r="O81" s="15"/>
@@ -8153,33 +8393,37 @@
     </row>
     <row r="82" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G82" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>261</v>
+        <v>372</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>289</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>290</v>
+        <v>278</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
@@ -8223,30 +8467,36 @@
       <c r="AZ82" s="20"/>
       <c r="BA82" s="21"/>
     </row>
-    <row r="83" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>377</v>
+        <v>278</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>378</v>
+        <v>160</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>402</v>
+      </c>
       <c r="H83" s="13" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
@@ -8294,35 +8544,41 @@
     </row>
     <row r="84" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="G84" s="12" t="s">
-        <v>381</v>
+        <v>545</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K84" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="L84" s="15"/>
+        <v>201</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
@@ -8367,40 +8623,40 @@
     </row>
     <row r="85" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G85" s="12" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="L85" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="M85" s="15" t="s">
-        <v>193</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
       <c r="N85" s="15"/>
       <c r="O85" s="15"/>
       <c r="P85" s="16"/>
@@ -8442,33 +8698,43 @@
       <c r="AZ85" s="20"/>
       <c r="BA85" s="21"/>
     </row>
-    <row r="86" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="H86" s="13" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
+        <v>386</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>319</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="15"/>
       <c r="O86" s="15"/>
@@ -8511,37 +8777,37 @@
       <c r="AZ86" s="20"/>
       <c r="BA86" s="21"/>
     </row>
-    <row r="87" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="H87" s="13" t="s">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J87" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="L87" s="15" t="s">
-        <v>96</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="J87" s="14"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
       <c r="M87" s="15"/>
       <c r="N87" s="15"/>
       <c r="O87" s="15"/>
@@ -8586,37 +8852,37 @@
     </row>
     <row r="88" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="G88" s="12" t="s">
-        <v>386</v>
+        <v>277</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="K88" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="L88" s="15" t="s">
-        <v>320</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="K88" s="14"/>
+      <c r="L88" s="15"/>
       <c r="M88" s="15"/>
       <c r="N88" s="15"/>
       <c r="O88" s="15"/>
@@ -8661,31 +8927,41 @@
     </row>
     <row r="89" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>388</v>
+        <v>119</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="G89" s="12" t="s">
-        <v>389</v>
+        <v>123</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="J89" s="14"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L89" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
@@ -8730,37 +9006,39 @@
     </row>
     <row r="90" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>390</v>
+        <v>233</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="G90" s="12" t="s">
-        <v>391</v>
+        <v>236</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="L90" s="15" t="s">
-        <v>377</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="L90" s="15"/>
       <c r="M90" s="15"/>
       <c r="N90" s="15"/>
       <c r="O90" s="15"/>
@@ -8803,33 +9081,43 @@
       <c r="AZ90" s="20"/>
       <c r="BA90" s="21"/>
     </row>
-    <row r="91" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>383</v>
+        <v>106</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>546</v>
+      </c>
       <c r="H91" s="13" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="M91" s="15"/>
       <c r="N91" s="15"/>
       <c r="O91" s="15"/>
@@ -8872,32 +9160,40 @@
       <c r="AZ91" s="20"/>
       <c r="BA91" s="21"/>
     </row>
-    <row r="92" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="J92" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I92" s="15"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="15"/>
+      <c r="K92" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
       <c r="N92" s="15"/>
@@ -8942,36 +9238,40 @@
     </row>
     <row r="93" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>373</v>
+        <v>192</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G93" s="12" t="s">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>359</v>
+        <v>170</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="K93" s="15" t="s">
-        <v>358</v>
+        <v>200</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="M93" s="15"/>
       <c r="N93" s="15"/>
@@ -9014,33 +9314,43 @@
       <c r="AZ93" s="20"/>
       <c r="BA93" s="21"/>
     </row>
-    <row r="94" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="H94" s="13" t="s">
-        <v>397</v>
+        <v>192</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
+        <v>195</v>
+      </c>
+      <c r="K94" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L94" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="M94" s="15"/>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
@@ -9085,37 +9395,37 @@
     </row>
     <row r="95" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="G95" s="12" t="s">
-        <v>399</v>
+        <v>242</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>375</v>
+        <v>192</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="K95" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L95" s="15" t="s">
-        <v>373</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
       <c r="M95" s="15"/>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
@@ -9160,37 +9470,35 @@
     </row>
     <row r="96" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="G96" s="12" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="J96" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="K96" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="L96" s="15" t="s">
-        <v>237</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="J96" s="14"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
       <c r="M96" s="15"/>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
@@ -9233,27 +9541,33 @@
       <c r="AZ96" s="20"/>
       <c r="BA96" s="21"/>
     </row>
-    <row r="97" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>388</v>
+      </c>
       <c r="H97" s="13" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
@@ -9302,33 +9616,41 @@
     </row>
     <row r="98" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>160</v>
+        <v>389</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="G98" s="12" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>373</v>
+        <v>206</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
+        <v>201</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>376</v>
+      </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
@@ -9373,30 +9695,34 @@
     </row>
     <row r="99" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="G99" s="12" t="s">
-        <v>404</v>
+        <v>548</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="K99" s="15"/>
       <c r="L99" s="15"/>
@@ -9442,31 +9768,35 @@
       <c r="AZ99" s="20"/>
       <c r="BA99" s="21"/>
     </row>
-    <row r="100" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="H100" s="13" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="J100" s="14" t="s">
-        <v>208</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="J100" s="14"/>
       <c r="K100" s="15"/>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
@@ -9511,30 +9841,40 @@
       <c r="AZ100" s="20"/>
       <c r="BA100" s="21"/>
     </row>
-    <row r="101" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>364</v>
+        <v>117</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>128</v>
+      </c>
       <c r="H101" s="13" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="J101" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
       <c r="N101" s="15"/>
@@ -9580,26 +9920,32 @@
     </row>
     <row r="102" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+        <v>374</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="G102" s="12" t="s">
-        <v>408</v>
+        <v>550</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="I102" s="15"/>
+        <v>374</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
       <c r="L102" s="15"/>
@@ -9647,30 +9993,38 @@
     </row>
     <row r="103" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>410</v>
+        <v>94</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="G103" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="15"/>
+        <v>285</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K103" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
       <c r="N103" s="15"/>
@@ -9716,30 +10070,36 @@
     </row>
     <row r="104" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>355</v>
+        <v>286</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="G104" s="12" t="s">
-        <v>413</v>
+        <v>288</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
+        <v>290</v>
+      </c>
+      <c r="J104" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K104" s="15"/>
       <c r="L104" s="15"/>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
@@ -9783,30 +10143,38 @@
       <c r="AZ104" s="20"/>
       <c r="BA104" s="21"/>
     </row>
-    <row r="105" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>415</v>
+        <v>290</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>403</v>
+      </c>
       <c r="H105" s="13" t="s">
-        <v>417</v>
+        <v>262</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
+        <v>289</v>
+      </c>
+      <c r="J105" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
       <c r="N105" s="15"/>
@@ -9850,30 +10218,38 @@
       <c r="AZ105" s="20"/>
       <c r="BA105" s="21"/>
     </row>
-    <row r="106" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>65</v>
+        <v>404</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="H106" s="13" t="s">
-        <v>415</v>
+        <v>247</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
+        <v>363</v>
+      </c>
+      <c r="J106" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K106" s="15"/>
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
       <c r="N106" s="15"/>
@@ -9919,30 +10295,34 @@
     </row>
     <row r="107" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>409</v>
+        <v>329</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>419</v>
+        <v>340</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="G107" s="12" t="s">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>406</v>
+        <v>304</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>349</v>
+        <v>193</v>
       </c>
       <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
+      <c r="K107" s="15"/>
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
       <c r="N107" s="15"/>
@@ -9988,33 +10368,37 @@
     </row>
     <row r="108" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>421</v>
+        <v>58</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="G108" s="12" t="s">
-        <v>422</v>
+        <v>61</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K108" s="14" t="s">
-        <v>417</v>
+        <v>24</v>
+      </c>
+      <c r="K108" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
@@ -10061,31 +10445,41 @@
     </row>
     <row r="109" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>412</v>
+        <v>42</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="G109" s="12" t="s">
-        <v>423</v>
+        <v>133</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="J109" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K109" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="M109" s="15"/>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
@@ -10130,30 +10524,36 @@
     </row>
     <row r="110" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>424</v>
+        <v>62</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="G110" s="12" t="s">
-        <v>425</v>
+        <v>64</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="J110" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="15"/>
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
       <c r="N110" s="15"/>
@@ -10198,29 +10598,35 @@
     </row>
     <row r="111" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>414</v>
+        <v>269</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>426</v>
+        <v>125</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="G111" s="12" t="s">
-        <v>427</v>
+        <v>293</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="J111" s="14"/>
+        <v>263</v>
+      </c>
+      <c r="J111" s="14" t="s">
+        <v>268</v>
+      </c>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
@@ -10265,30 +10671,38 @@
       <c r="AZ111" s="20"/>
       <c r="BA111" s="21"/>
     </row>
-    <row r="112" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>417</v>
+        <v>273</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>398</v>
+        <v>202</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>296</v>
+      </c>
       <c r="H112" s="13" t="s">
-        <v>415</v>
+        <v>269</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="J112" s="14"/>
-      <c r="K112" s="15"/>
+        <v>297</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="K112" s="14"/>
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
       <c r="N112" s="15"/>
@@ -10332,34 +10746,46 @@
       <c r="AZ112" s="20"/>
       <c r="BA112" s="21"/>
     </row>
-    <row r="113" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>370</v>
+        <v>47</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>428</v>
+        <v>134</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>137</v>
+      </c>
       <c r="H113" s="13" t="s">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="K113" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L113" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M113" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
       <c r="P113" s="16"/>
@@ -10403,31 +10829,33 @@
     </row>
     <row r="114" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="G114" s="12" t="s">
-        <v>430</v>
+        <v>553</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="J114" s="14" t="s">
-        <v>431</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="J114" s="14"/>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
@@ -10474,31 +10902,33 @@
     </row>
     <row r="115" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>397</v>
+        <v>155</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>432</v>
+        <v>184</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G115" s="12" t="s">
-        <v>433</v>
+        <v>186</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>434</v>
+        <v>105</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="J115" s="14" t="s">
-        <v>387</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J115" s="14"/>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
       <c r="M115" s="15"/>
@@ -10545,30 +10975,38 @@
     </row>
     <row r="116" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>435</v>
+        <v>230</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+        <v>361</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="G116" s="12" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>397</v>
+        <v>261</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="J116" s="14"/>
-      <c r="K116" s="15"/>
+        <v>289</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="K116" s="14" t="s">
+        <v>290</v>
+      </c>
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
@@ -10614,34 +11052,28 @@
     </row>
     <row r="117" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="J117" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="K117" s="14"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="16"/>
       <c r="R117" s="16"/>
@@ -10683,40 +11115,40 @@
     </row>
     <row r="118" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>441</v>
+        <v>547</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="I118" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="J118" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="K118" s="23"/>
-      <c r="L118" s="23"/>
-      <c r="M118" s="23"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="23"/>
+        <v>382</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="J118" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="K118" s="14"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
       <c r="P118" s="16"/>
       <c r="Q118" s="16"/>
       <c r="R118" s="16"/>
@@ -10756,30 +11188,34 @@
       <c r="AZ118" s="20"/>
       <c r="BA118" s="21"/>
     </row>
-    <row r="119" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="E119" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>551</v>
+      </c>
       <c r="H119" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="I119" s="15"/>
       <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
+      <c r="K119" s="15"/>
       <c r="L119" s="15"/>
       <c r="M119" s="15"/>
       <c r="N119" s="15"/>
@@ -10825,30 +11261,28 @@
     </row>
     <row r="120" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>107</v>
+        <v>455</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="I120" s="15"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
       <c r="P120" s="16"/>
       <c r="Q120" s="16"/>
       <c r="R120" s="16"/>
@@ -10888,36 +11322,30 @@
       <c r="AZ120" s="20"/>
       <c r="BA120" s="21"/>
     </row>
-    <row r="121" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
-      <c r="O121" s="15"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
       <c r="P121" s="16"/>
       <c r="Q121" s="16"/>
       <c r="R121" s="16"/>
@@ -10959,24 +11387,24 @@
     </row>
     <row r="122" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="15"/>
       <c r="L122" s="15"/>
       <c r="M122" s="15"/>
       <c r="N122" s="15"/>
@@ -11022,26 +11450,28 @@
     </row>
     <row r="123" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="G123" s="1"/>
-      <c r="H123" s="13" t="s">
-        <v>448</v>
-      </c>
+      <c r="H123" s="13"/>
       <c r="I123" s="13"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="15"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
       <c r="L123" s="15"/>
       <c r="M123" s="15"/>
       <c r="N123" s="15"/>
@@ -11087,24 +11517,26 @@
     </row>
     <row r="124" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="13"/>
+      <c r="H124" s="13" t="s">
+        <v>447</v>
+      </c>
       <c r="I124" s="13"/>
       <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
+      <c r="K124" s="15"/>
       <c r="L124" s="15"/>
       <c r="M124" s="15"/>
       <c r="N124" s="15"/>
@@ -11150,28 +11582,30 @@
     </row>
     <row r="125" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
+      <c r="H125" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
       <c r="P125" s="16"/>
       <c r="Q125" s="16"/>
       <c r="R125" s="16"/>
@@ -11213,24 +11647,28 @@
     </row>
     <row r="126" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="14"/>
-      <c r="K126" s="15"/>
+      <c r="K126" s="14"/>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
       <c r="N126" s="15"/>
@@ -11276,16 +11714,16 @@
     </row>
     <row r="127" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>175</v>
+        <v>441</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>451</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -11339,28 +11777,28 @@
     </row>
     <row r="128" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>450</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
       <c r="P128" s="17"/>
       <c r="Q128" s="17"/>
       <c r="R128" s="17"/>
@@ -11402,16 +11840,16 @@
     </row>
     <row r="129" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>456</v>
+        <v>65</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -11465,16 +11903,16 @@
     </row>
     <row r="130" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>66</v>
+        <v>459</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -11526,23 +11964,31 @@
       <c r="AZ130" s="20"/>
       <c r="BA130" s="17"/>
     </row>
-    <row r="131" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>65</v>
+        <v>461</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -11589,30 +12035,42 @@
       <c r="AZ131" s="20"/>
       <c r="BA131" s="17"/>
     </row>
-    <row r="132" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>461</v>
+        <v>310</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="I132" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="J132" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+      <c r="O132" s="23"/>
       <c r="P132" s="17"/>
       <c r="Q132" s="17"/>
       <c r="R132" s="17"/>
@@ -11654,32 +12112,38 @@
     </row>
     <row r="133" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>462</v>
+        <v>353</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G133" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
+        <v>537</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="I133" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
       <c r="P133" s="17"/>
       <c r="Q133" s="17"/>
       <c r="R133" s="17"/>
@@ -11719,32 +12183,38 @@
       <c r="AZ133" s="20"/>
       <c r="BA133" s="17"/>
     </row>
-    <row r="134" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>465</v>
+        <v>107</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="I134" s="15"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
       <c r="P134" s="17"/>
       <c r="Q134" s="17"/>
       <c r="R134" s="17"/>
@@ -17960,9 +18430,9 @@
       <c r="M247" s="17"/>
       <c r="N247" s="17"/>
       <c r="O247" s="17"/>
-      <c r="P247" s="17"/>
-      <c r="Q247" s="17"/>
-      <c r="R247" s="17"/>
+      <c r="P247" s="24"/>
+      <c r="Q247" s="24"/>
+      <c r="R247" s="24"/>
       <c r="S247" s="17"/>
       <c r="T247" s="17"/>
       <c r="U247" s="17"/>
@@ -17991,13 +18461,10 @@
       <c r="AR247" s="17"/>
       <c r="AS247" s="17"/>
       <c r="AT247" s="17"/>
-      <c r="AU247" s="18"/>
-      <c r="AV247" s="19"/>
-      <c r="AW247" s="17"/>
       <c r="AX247" s="20"/>
       <c r="AY247" s="19"/>
       <c r="AZ247" s="20"/>
-      <c r="BA247" s="17"/>
+      <c r="BA247" s="25"/>
     </row>
     <row r="248" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
@@ -18015,9 +18482,9 @@
       <c r="M248" s="17"/>
       <c r="N248" s="17"/>
       <c r="O248" s="17"/>
-      <c r="P248" s="17"/>
-      <c r="Q248" s="17"/>
-      <c r="R248" s="17"/>
+      <c r="P248" s="24"/>
+      <c r="Q248" s="24"/>
+      <c r="R248" s="24"/>
       <c r="S248" s="17"/>
       <c r="T248" s="17"/>
       <c r="U248" s="17"/>
@@ -18046,13 +18513,10 @@
       <c r="AR248" s="17"/>
       <c r="AS248" s="17"/>
       <c r="AT248" s="17"/>
-      <c r="AU248" s="18"/>
-      <c r="AV248" s="19"/>
-      <c r="AW248" s="17"/>
       <c r="AX248" s="20"/>
       <c r="AY248" s="19"/>
       <c r="AZ248" s="20"/>
-      <c r="BA248" s="17"/>
+      <c r="BA248" s="25"/>
     </row>
     <row r="249" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
@@ -18070,9 +18534,9 @@
       <c r="M249" s="17"/>
       <c r="N249" s="17"/>
       <c r="O249" s="17"/>
-      <c r="P249" s="17"/>
-      <c r="Q249" s="17"/>
-      <c r="R249" s="17"/>
+      <c r="P249" s="24"/>
+      <c r="Q249" s="24"/>
+      <c r="R249" s="24"/>
       <c r="S249" s="17"/>
       <c r="T249" s="17"/>
       <c r="U249" s="17"/>
@@ -18101,13 +18565,10 @@
       <c r="AR249" s="17"/>
       <c r="AS249" s="17"/>
       <c r="AT249" s="17"/>
-      <c r="AU249" s="18"/>
-      <c r="AV249" s="19"/>
-      <c r="AW249" s="17"/>
       <c r="AX249" s="20"/>
       <c r="AY249" s="19"/>
       <c r="AZ249" s="20"/>
-      <c r="BA249" s="17"/>
+      <c r="BA249" s="25"/>
     </row>
     <row r="250" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
@@ -18125,9 +18586,9 @@
       <c r="M250" s="17"/>
       <c r="N250" s="17"/>
       <c r="O250" s="17"/>
-      <c r="P250" s="17"/>
-      <c r="Q250" s="17"/>
-      <c r="R250" s="17"/>
+      <c r="P250" s="24"/>
+      <c r="Q250" s="24"/>
+      <c r="R250" s="24"/>
       <c r="S250" s="17"/>
       <c r="T250" s="17"/>
       <c r="U250" s="17"/>
@@ -18156,13 +18617,10 @@
       <c r="AR250" s="17"/>
       <c r="AS250" s="17"/>
       <c r="AT250" s="17"/>
-      <c r="AU250" s="18"/>
-      <c r="AV250" s="19"/>
-      <c r="AW250" s="17"/>
       <c r="AX250" s="20"/>
       <c r="AY250" s="19"/>
       <c r="AZ250" s="20"/>
-      <c r="BA250" s="17"/>
+      <c r="BA250" s="25"/>
     </row>
     <row r="251" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
@@ -18180,9 +18638,9 @@
       <c r="M251" s="17"/>
       <c r="N251" s="17"/>
       <c r="O251" s="17"/>
-      <c r="P251" s="17"/>
-      <c r="Q251" s="17"/>
-      <c r="R251" s="17"/>
+      <c r="P251" s="24"/>
+      <c r="Q251" s="24"/>
+      <c r="R251" s="24"/>
       <c r="S251" s="17"/>
       <c r="T251" s="17"/>
       <c r="U251" s="17"/>
@@ -18211,13 +18669,10 @@
       <c r="AR251" s="17"/>
       <c r="AS251" s="17"/>
       <c r="AT251" s="17"/>
-      <c r="AU251" s="18"/>
-      <c r="AV251" s="19"/>
-      <c r="AW251" s="17"/>
       <c r="AX251" s="20"/>
       <c r="AY251" s="19"/>
       <c r="AZ251" s="20"/>
-      <c r="BA251" s="17"/>
+      <c r="BA251" s="25"/>
     </row>
     <row r="252" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
@@ -18235,9 +18690,9 @@
       <c r="M252" s="17"/>
       <c r="N252" s="17"/>
       <c r="O252" s="17"/>
-      <c r="P252" s="17"/>
-      <c r="Q252" s="17"/>
-      <c r="R252" s="17"/>
+      <c r="P252" s="24"/>
+      <c r="Q252" s="24"/>
+      <c r="R252" s="24"/>
       <c r="S252" s="17"/>
       <c r="T252" s="17"/>
       <c r="U252" s="17"/>
@@ -18266,13 +18721,10 @@
       <c r="AR252" s="17"/>
       <c r="AS252" s="17"/>
       <c r="AT252" s="17"/>
-      <c r="AU252" s="18"/>
-      <c r="AV252" s="19"/>
-      <c r="AW252" s="17"/>
       <c r="AX252" s="20"/>
       <c r="AY252" s="19"/>
       <c r="AZ252" s="20"/>
-      <c r="BA252" s="17"/>
+      <c r="BA252" s="25"/>
     </row>
     <row r="253" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
@@ -22695,339 +23147,105 @@
       <c r="BA337" s="25"/>
     </row>
     <row r="338" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="1"/>
-      <c r="B338" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C338" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="D338" s="17"/>
-      <c r="E338" s="17"/>
-      <c r="F338" s="17"/>
-      <c r="G338" s="17"/>
+      <c r="A338" s="22"/>
       <c r="H338" s="16"/>
       <c r="I338" s="16"/>
-      <c r="J338" s="24"/>
-      <c r="K338" s="24"/>
-      <c r="L338" s="24"/>
-      <c r="M338" s="24"/>
-      <c r="N338" s="24"/>
-      <c r="O338" s="24"/>
-      <c r="P338" s="24"/>
-      <c r="Q338" s="24"/>
-      <c r="R338" s="24"/>
-      <c r="S338" s="17"/>
-      <c r="T338" s="17"/>
-      <c r="U338" s="17"/>
-      <c r="V338" s="17"/>
-      <c r="W338" s="17"/>
-      <c r="X338" s="17"/>
-      <c r="Y338" s="17"/>
-      <c r="Z338" s="17"/>
-      <c r="AA338" s="17"/>
-      <c r="AB338" s="17"/>
-      <c r="AC338" s="17"/>
-      <c r="AD338" s="17"/>
-      <c r="AE338" s="17"/>
-      <c r="AF338" s="17"/>
-      <c r="AG338" s="17"/>
-      <c r="AH338" s="17"/>
-      <c r="AI338" s="17"/>
-      <c r="AJ338" s="17"/>
-      <c r="AK338" s="17"/>
-      <c r="AL338" s="17"/>
-      <c r="AM338" s="17"/>
-      <c r="AN338" s="17"/>
-      <c r="AO338" s="17"/>
-      <c r="AP338" s="17"/>
-      <c r="AQ338" s="17"/>
-      <c r="AR338" s="17"/>
-      <c r="AS338" s="17"/>
-      <c r="AT338" s="17"/>
-      <c r="AX338" s="20"/>
-      <c r="AY338" s="19"/>
-      <c r="AZ338" s="20"/>
+      <c r="J338" s="16"/>
+      <c r="K338" s="16"/>
+      <c r="L338" s="16"/>
+      <c r="M338" s="16"/>
+      <c r="N338" s="16"/>
+      <c r="O338" s="16"/>
+      <c r="P338" s="16"/>
+      <c r="Q338" s="16"/>
+      <c r="R338" s="16"/>
+      <c r="AX338" s="16"/>
+      <c r="AZ338" s="16"/>
       <c r="BA338" s="25"/>
     </row>
     <row r="339" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="1"/>
-      <c r="B339" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="C339" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="D339" s="17"/>
-      <c r="E339" s="17"/>
-      <c r="F339" s="17"/>
-      <c r="G339" s="17"/>
+      <c r="A339" s="22"/>
       <c r="H339" s="16"/>
       <c r="I339" s="16"/>
-      <c r="J339" s="24"/>
-      <c r="K339" s="24"/>
-      <c r="L339" s="24"/>
-      <c r="M339" s="24"/>
-      <c r="N339" s="24"/>
-      <c r="O339" s="24"/>
-      <c r="P339" s="24"/>
-      <c r="Q339" s="24"/>
-      <c r="R339" s="24"/>
-      <c r="S339" s="17"/>
-      <c r="T339" s="17"/>
-      <c r="U339" s="17"/>
-      <c r="V339" s="17"/>
-      <c r="W339" s="17"/>
-      <c r="X339" s="17"/>
-      <c r="Y339" s="17"/>
-      <c r="Z339" s="17"/>
-      <c r="AA339" s="17"/>
-      <c r="AB339" s="17"/>
-      <c r="AC339" s="17"/>
-      <c r="AD339" s="17"/>
-      <c r="AE339" s="17"/>
-      <c r="AF339" s="17"/>
-      <c r="AG339" s="17"/>
-      <c r="AH339" s="17"/>
-      <c r="AI339" s="17"/>
-      <c r="AJ339" s="17"/>
-      <c r="AK339" s="17"/>
-      <c r="AL339" s="17"/>
-      <c r="AM339" s="17"/>
-      <c r="AN339" s="17"/>
-      <c r="AO339" s="17"/>
-      <c r="AP339" s="17"/>
-      <c r="AQ339" s="17"/>
-      <c r="AR339" s="17"/>
-      <c r="AS339" s="17"/>
-      <c r="AT339" s="17"/>
-      <c r="AX339" s="20"/>
-      <c r="AY339" s="19"/>
-      <c r="AZ339" s="20"/>
+      <c r="J339" s="16"/>
+      <c r="K339" s="16"/>
+      <c r="L339" s="16"/>
+      <c r="M339" s="16"/>
+      <c r="N339" s="16"/>
+      <c r="O339" s="16"/>
+      <c r="P339" s="16"/>
+      <c r="Q339" s="16"/>
+      <c r="R339" s="16"/>
+      <c r="AX339" s="16"/>
+      <c r="AZ339" s="16"/>
       <c r="BA339" s="25"/>
     </row>
     <row r="340" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="1"/>
-      <c r="B340" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="C340" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="D340" s="17"/>
-      <c r="E340" s="17"/>
-      <c r="F340" s="17"/>
-      <c r="G340" s="17"/>
+      <c r="A340" s="22"/>
       <c r="H340" s="16"/>
       <c r="I340" s="16"/>
-      <c r="J340" s="24"/>
-      <c r="K340" s="24"/>
-      <c r="L340" s="24"/>
-      <c r="M340" s="24"/>
-      <c r="N340" s="24"/>
-      <c r="O340" s="24"/>
-      <c r="P340" s="24"/>
-      <c r="Q340" s="24"/>
-      <c r="R340" s="24"/>
-      <c r="S340" s="17"/>
-      <c r="T340" s="17"/>
-      <c r="U340" s="17"/>
-      <c r="V340" s="17"/>
-      <c r="W340" s="17"/>
-      <c r="X340" s="17"/>
-      <c r="Y340" s="17"/>
-      <c r="Z340" s="17"/>
-      <c r="AA340" s="17"/>
-      <c r="AB340" s="17"/>
-      <c r="AC340" s="17"/>
-      <c r="AD340" s="17"/>
-      <c r="AE340" s="17"/>
-      <c r="AF340" s="17"/>
-      <c r="AG340" s="17"/>
-      <c r="AH340" s="17"/>
-      <c r="AI340" s="17"/>
-      <c r="AJ340" s="17"/>
-      <c r="AK340" s="17"/>
-      <c r="AL340" s="17"/>
-      <c r="AM340" s="17"/>
-      <c r="AN340" s="17"/>
-      <c r="AO340" s="17"/>
-      <c r="AP340" s="17"/>
-      <c r="AQ340" s="17"/>
-      <c r="AR340" s="17"/>
-      <c r="AS340" s="17"/>
-      <c r="AT340" s="17"/>
-      <c r="AX340" s="20"/>
-      <c r="AY340" s="19"/>
-      <c r="AZ340" s="20"/>
+      <c r="J340" s="16"/>
+      <c r="K340" s="16"/>
+      <c r="L340" s="16"/>
+      <c r="M340" s="16"/>
+      <c r="N340" s="16"/>
+      <c r="O340" s="16"/>
+      <c r="P340" s="16"/>
+      <c r="Q340" s="16"/>
+      <c r="R340" s="16"/>
+      <c r="AX340" s="16"/>
+      <c r="AZ340" s="16"/>
       <c r="BA340" s="25"/>
     </row>
     <row r="341" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="1"/>
-      <c r="B341" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="C341" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="D341" s="17"/>
-      <c r="E341" s="17"/>
-      <c r="F341" s="17"/>
-      <c r="G341" s="17"/>
+      <c r="A341" s="22"/>
       <c r="H341" s="16"/>
       <c r="I341" s="16"/>
-      <c r="J341" s="24"/>
-      <c r="K341" s="24"/>
-      <c r="L341" s="24"/>
-      <c r="M341" s="24"/>
-      <c r="N341" s="24"/>
-      <c r="O341" s="24"/>
-      <c r="P341" s="24"/>
-      <c r="Q341" s="24"/>
-      <c r="R341" s="24"/>
-      <c r="S341" s="17"/>
-      <c r="T341" s="17"/>
-      <c r="U341" s="17"/>
-      <c r="V341" s="17"/>
-      <c r="W341" s="17"/>
-      <c r="X341" s="17"/>
-      <c r="Y341" s="17"/>
-      <c r="Z341" s="17"/>
-      <c r="AA341" s="17"/>
-      <c r="AB341" s="17"/>
-      <c r="AC341" s="17"/>
-      <c r="AD341" s="17"/>
-      <c r="AE341" s="17"/>
-      <c r="AF341" s="17"/>
-      <c r="AG341" s="17"/>
-      <c r="AH341" s="17"/>
-      <c r="AI341" s="17"/>
-      <c r="AJ341" s="17"/>
-      <c r="AK341" s="17"/>
-      <c r="AL341" s="17"/>
-      <c r="AM341" s="17"/>
-      <c r="AN341" s="17"/>
-      <c r="AO341" s="17"/>
-      <c r="AP341" s="17"/>
-      <c r="AQ341" s="17"/>
-      <c r="AR341" s="17"/>
-      <c r="AS341" s="17"/>
-      <c r="AT341" s="17"/>
-      <c r="AX341" s="20"/>
-      <c r="AY341" s="19"/>
-      <c r="AZ341" s="20"/>
+      <c r="J341" s="16"/>
+      <c r="K341" s="16"/>
+      <c r="L341" s="16"/>
+      <c r="M341" s="16"/>
+      <c r="N341" s="16"/>
+      <c r="O341" s="16"/>
+      <c r="P341" s="16"/>
+      <c r="Q341" s="16"/>
+      <c r="R341" s="16"/>
+      <c r="AX341" s="16"/>
+      <c r="AZ341" s="16"/>
       <c r="BA341" s="25"/>
     </row>
     <row r="342" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="1"/>
-      <c r="B342" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="C342" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="D342" s="17"/>
-      <c r="E342" s="17"/>
-      <c r="F342" s="17"/>
-      <c r="G342" s="17"/>
+      <c r="A342" s="22"/>
       <c r="H342" s="16"/>
       <c r="I342" s="16"/>
-      <c r="J342" s="24"/>
-      <c r="K342" s="24"/>
-      <c r="L342" s="24"/>
-      <c r="M342" s="24"/>
-      <c r="N342" s="24"/>
-      <c r="O342" s="24"/>
-      <c r="P342" s="24"/>
-      <c r="Q342" s="24"/>
-      <c r="R342" s="24"/>
-      <c r="S342" s="17"/>
-      <c r="T342" s="17"/>
-      <c r="U342" s="17"/>
-      <c r="V342" s="17"/>
-      <c r="W342" s="17"/>
-      <c r="X342" s="17"/>
-      <c r="Y342" s="17"/>
-      <c r="Z342" s="17"/>
-      <c r="AA342" s="17"/>
-      <c r="AB342" s="17"/>
-      <c r="AC342" s="17"/>
-      <c r="AD342" s="17"/>
-      <c r="AE342" s="17"/>
-      <c r="AF342" s="17"/>
-      <c r="AG342" s="17"/>
-      <c r="AH342" s="17"/>
-      <c r="AI342" s="17"/>
-      <c r="AJ342" s="17"/>
-      <c r="AK342" s="17"/>
-      <c r="AL342" s="17"/>
-      <c r="AM342" s="17"/>
-      <c r="AN342" s="17"/>
-      <c r="AO342" s="17"/>
-      <c r="AP342" s="17"/>
-      <c r="AQ342" s="17"/>
-      <c r="AR342" s="17"/>
-      <c r="AS342" s="17"/>
-      <c r="AT342" s="17"/>
-      <c r="AX342" s="20"/>
-      <c r="AY342" s="19"/>
-      <c r="AZ342" s="20"/>
+      <c r="J342" s="16"/>
+      <c r="K342" s="16"/>
+      <c r="L342" s="16"/>
+      <c r="M342" s="16"/>
+      <c r="N342" s="16"/>
+      <c r="O342" s="16"/>
+      <c r="P342" s="16"/>
+      <c r="Q342" s="16"/>
+      <c r="R342" s="16"/>
+      <c r="AX342" s="16"/>
+      <c r="AZ342" s="16"/>
       <c r="BA342" s="25"/>
     </row>
     <row r="343" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="1"/>
-      <c r="B343" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C343" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D343" s="17"/>
-      <c r="E343" s="17"/>
-      <c r="F343" s="17"/>
-      <c r="G343" s="17"/>
+      <c r="A343" s="22"/>
       <c r="H343" s="16"/>
       <c r="I343" s="16"/>
-      <c r="J343" s="24"/>
-      <c r="K343" s="24"/>
-      <c r="L343" s="24"/>
-      <c r="M343" s="24"/>
-      <c r="N343" s="24"/>
-      <c r="O343" s="24"/>
-      <c r="P343" s="24"/>
-      <c r="Q343" s="24"/>
-      <c r="R343" s="24"/>
-      <c r="S343" s="17"/>
-      <c r="T343" s="17"/>
-      <c r="U343" s="17"/>
-      <c r="V343" s="17"/>
-      <c r="W343" s="17"/>
-      <c r="X343" s="17"/>
-      <c r="Y343" s="17"/>
-      <c r="Z343" s="17"/>
-      <c r="AA343" s="17"/>
-      <c r="AB343" s="17"/>
-      <c r="AC343" s="17"/>
-      <c r="AD343" s="17"/>
-      <c r="AE343" s="17"/>
-      <c r="AF343" s="17"/>
-      <c r="AG343" s="17"/>
-      <c r="AH343" s="17"/>
-      <c r="AI343" s="17"/>
-      <c r="AJ343" s="17"/>
-      <c r="AK343" s="17"/>
-      <c r="AL343" s="17"/>
-      <c r="AM343" s="17"/>
-      <c r="AN343" s="17"/>
-      <c r="AO343" s="17"/>
-      <c r="AP343" s="17"/>
-      <c r="AQ343" s="17"/>
-      <c r="AR343" s="17"/>
-      <c r="AS343" s="17"/>
-      <c r="AT343" s="17"/>
-      <c r="AX343" s="20"/>
-      <c r="AY343" s="19"/>
-      <c r="AZ343" s="20"/>
+      <c r="J343" s="16"/>
+      <c r="K343" s="16"/>
+      <c r="L343" s="16"/>
+      <c r="M343" s="16"/>
+      <c r="N343" s="16"/>
+      <c r="O343" s="16"/>
+      <c r="P343" s="16"/>
+      <c r="Q343" s="16"/>
+      <c r="R343" s="16"/>
+      <c r="AX343" s="16"/>
+      <c r="AZ343" s="16"/>
       <c r="BA343" s="25"/>
     </row>
     <row r="344" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -36154,214 +36372,134 @@
       <c r="AZ1115" s="16"/>
       <c r="BA1115" s="25"/>
     </row>
-    <row r="1116" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1116" s="22"/>
-      <c r="H1116" s="16"/>
-      <c r="I1116" s="16"/>
-      <c r="J1116" s="16"/>
-      <c r="K1116" s="16"/>
-      <c r="L1116" s="16"/>
-      <c r="M1116" s="16"/>
-      <c r="N1116" s="16"/>
-      <c r="O1116" s="16"/>
-      <c r="P1116" s="16"/>
-      <c r="Q1116" s="16"/>
-      <c r="R1116" s="16"/>
-      <c r="AX1116" s="16"/>
-      <c r="AZ1116" s="16"/>
-      <c r="BA1116" s="25"/>
-    </row>
-    <row r="1117" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1117" s="22"/>
-      <c r="H1117" s="16"/>
-      <c r="I1117" s="16"/>
-      <c r="J1117" s="16"/>
-      <c r="K1117" s="16"/>
-      <c r="L1117" s="16"/>
-      <c r="M1117" s="16"/>
-      <c r="N1117" s="16"/>
-      <c r="O1117" s="16"/>
-      <c r="P1117" s="16"/>
-      <c r="Q1117" s="16"/>
-      <c r="R1117" s="16"/>
-      <c r="AX1117" s="16"/>
-      <c r="AZ1117" s="16"/>
-      <c r="BA1117" s="25"/>
-    </row>
-    <row r="1118" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1118" s="22"/>
-      <c r="H1118" s="16"/>
-      <c r="I1118" s="16"/>
-      <c r="J1118" s="16"/>
-      <c r="K1118" s="16"/>
-      <c r="L1118" s="16"/>
-      <c r="M1118" s="16"/>
-      <c r="N1118" s="16"/>
-      <c r="O1118" s="16"/>
-      <c r="P1118" s="16"/>
-      <c r="Q1118" s="16"/>
-      <c r="R1118" s="16"/>
-      <c r="AX1118" s="16"/>
-      <c r="AZ1118" s="16"/>
-      <c r="BA1118" s="25"/>
-    </row>
-    <row r="1119" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1119" s="22"/>
-      <c r="H1119" s="16"/>
-      <c r="I1119" s="16"/>
-      <c r="J1119" s="16"/>
-      <c r="K1119" s="16"/>
-      <c r="L1119" s="16"/>
-      <c r="M1119" s="16"/>
-      <c r="N1119" s="16"/>
-      <c r="O1119" s="16"/>
-      <c r="P1119" s="16"/>
-      <c r="Q1119" s="16"/>
-      <c r="R1119" s="16"/>
-      <c r="AX1119" s="16"/>
-      <c r="AZ1119" s="16"/>
-      <c r="BA1119" s="25"/>
-    </row>
-    <row r="1120" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1120" s="22"/>
-      <c r="H1120" s="16"/>
-      <c r="I1120" s="16"/>
-      <c r="J1120" s="16"/>
-      <c r="K1120" s="16"/>
-      <c r="L1120" s="16"/>
-      <c r="M1120" s="16"/>
-      <c r="N1120" s="16"/>
-      <c r="O1120" s="16"/>
-      <c r="P1120" s="16"/>
-      <c r="Q1120" s="16"/>
-      <c r="R1120" s="16"/>
-      <c r="AX1120" s="16"/>
-      <c r="AZ1120" s="16"/>
-      <c r="BA1120" s="25"/>
-    </row>
-    <row r="1121" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1121" s="22"/>
-      <c r="H1121" s="16"/>
-      <c r="I1121" s="16"/>
-      <c r="J1121" s="16"/>
-      <c r="K1121" s="16"/>
-      <c r="L1121" s="16"/>
-      <c r="M1121" s="16"/>
-      <c r="N1121" s="16"/>
-      <c r="O1121" s="16"/>
-      <c r="P1121" s="16"/>
-      <c r="Q1121" s="16"/>
-      <c r="R1121" s="16"/>
-      <c r="AX1121" s="16"/>
-      <c r="AZ1121" s="16"/>
-      <c r="BA1121" s="25"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O134">
+    <sortCondition ref="A2:A134"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{FCACA24D-3716-4AE8-B437-2FDFFE0A1B65}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{57C76E65-5F9E-4AD7-91D4-420C9FA8CDE4}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{B550D92F-9BDB-43A8-B5E4-78C9A530C41A}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{B3A278EA-C5E5-4D53-A3BC-9128A5AB39E8}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{2A0D34DA-E8C2-4825-BD0C-D0391E05FC7C}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{7077E923-4C55-40EA-A16C-28FB56749153}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{C2C451F4-DB82-4418-B759-F81B039E0FDC}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{AD3E5C59-FA8A-4002-8DF7-42DE387C9B54}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{F561456B-A341-40C3-93D1-553247955E66}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{DE17733C-CCB0-4137-ADDA-5D527DD8DFC7}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{4FC7EDF5-0B79-44EF-B17F-110A85AEAD01}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{7AFBE99E-DC19-41A2-9D58-274C31F07143}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{D5F8C872-05EB-4328-B91F-34608E4DF9FC}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{1EC020FB-9949-4013-8B85-A4858FB94EB9}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{B737FF43-1892-479D-9D40-B6CB69066B1F}"/>
-    <hyperlink ref="G19" r:id="rId16" xr:uid="{4911B11A-D0C6-4210-9CC9-040EBB36906E}"/>
-    <hyperlink ref="G20" r:id="rId17" xr:uid="{6DFCB739-D5E6-4794-A7B9-8E4574CFF84C}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{89E7B72F-0DEE-4B23-B546-8CEFBADF188F}"/>
-    <hyperlink ref="G22" r:id="rId19" xr:uid="{2243E5B6-B796-435C-B131-E8084259681E}"/>
-    <hyperlink ref="G32" r:id="rId20" xr:uid="{399F6ADE-CDB3-4025-9671-6F738E613AD7}"/>
-    <hyperlink ref="G28" r:id="rId21" xr:uid="{95E39D93-62DA-4BCC-B9EE-4CDAD6916BA3}"/>
-    <hyperlink ref="G23" r:id="rId22" xr:uid="{AD8D06F4-C324-4012-B2B4-C10A69A4B501}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{A8192977-C131-48CE-80BB-BD0AF0166819}"/>
-    <hyperlink ref="G39" r:id="rId24" xr:uid="{16CA57C9-D000-4CD4-992D-A8B80A1AD843}"/>
-    <hyperlink ref="G42" r:id="rId25" xr:uid="{DD673EA8-B79E-4FCC-A3BD-E1DC8758A78C}"/>
-    <hyperlink ref="G63" r:id="rId26" xr:uid="{2F8D9A8F-0E20-4249-BA51-36A94BC52D0A}"/>
-    <hyperlink ref="G73" r:id="rId27" xr:uid="{64B8A9E3-AD8B-40DB-ABE6-784A2A933BB4}"/>
-    <hyperlink ref="G64" r:id="rId28" xr:uid="{70C98CDC-F116-46F3-9A05-D8316FB4BC2D}"/>
-    <hyperlink ref="G36" r:id="rId29" xr:uid="{8F7883EF-B0D9-4293-9A7A-8C8C2526AA9D}"/>
-    <hyperlink ref="G40" r:id="rId30" xr:uid="{A2907F68-0937-4A2E-910F-6EE47B2CCE0A}"/>
-    <hyperlink ref="G38" r:id="rId31" xr:uid="{8F4498FF-7B69-4423-A429-9296DDBCA630}"/>
-    <hyperlink ref="G25" r:id="rId32" xr:uid="{6810AA70-8E4F-4D56-871F-128364715883}"/>
-    <hyperlink ref="G27" r:id="rId33" xr:uid="{E5460E2F-F5EA-4116-8269-95C0A62A4D34}"/>
-    <hyperlink ref="G26" r:id="rId34" xr:uid="{B4DBCB76-0CD5-4D62-8D1B-37FFAE74DE6A}"/>
-    <hyperlink ref="G29" r:id="rId35" xr:uid="{3EE64604-74DB-468A-9CE7-D2DC05836395}"/>
-    <hyperlink ref="G30" r:id="rId36" xr:uid="{EEB4D0E3-663E-48DB-8A85-6F26C7DA0239}"/>
-    <hyperlink ref="G31" r:id="rId37" xr:uid="{7F69D6BA-8002-4B09-8180-855EBF5031EE}"/>
-    <hyperlink ref="G15" r:id="rId38" xr:uid="{99A023F2-4507-467D-8DAB-BEB7693CC468}"/>
-    <hyperlink ref="G16" r:id="rId39" xr:uid="{3E741944-62DF-4B40-9AB3-FD74FA4797F1}"/>
-    <hyperlink ref="G33" r:id="rId40" xr:uid="{42B3C4A7-E66A-46C9-9258-D4BD00021921}"/>
-    <hyperlink ref="G34" r:id="rId41" location="Wisconsin_Badgers_Logo_PNG" xr:uid="{D9416004-7DE9-49D1-819F-D98E12AFC0EE}"/>
-    <hyperlink ref="G59" r:id="rId42" xr:uid="{395ABA04-AE94-40E4-A747-26C098FB7678}"/>
-    <hyperlink ref="G47" r:id="rId43" xr:uid="{2F7C5843-B6E2-4A70-B77C-E0B25C7E722E}"/>
-    <hyperlink ref="G62" r:id="rId44" xr:uid="{3A20DD7E-DA2C-47BD-8A98-21BE4CE0CA01}"/>
-    <hyperlink ref="G37" r:id="rId45" xr:uid="{86028A57-87EB-4F30-AB5F-408BC93C91CD}"/>
-    <hyperlink ref="G35" r:id="rId46" xr:uid="{6B22DC29-5E4E-489E-8EE9-B999348A2EE4}"/>
-    <hyperlink ref="G43" r:id="rId47" xr:uid="{2D2084C0-3FBA-4BF3-A816-6B7E5C574536}"/>
-    <hyperlink ref="G44" r:id="rId48" xr:uid="{1D570B06-88E2-409F-84FC-3D01A21B53FF}"/>
-    <hyperlink ref="G45" r:id="rId49" xr:uid="{956F3549-2E44-4AF1-9D53-0B1F9EF53684}"/>
-    <hyperlink ref="G46" r:id="rId50" xr:uid="{5E70A809-7D84-4A32-B45D-DECEB0E92117}"/>
-    <hyperlink ref="G60" r:id="rId51" xr:uid="{C2BE4FDC-0B85-4459-BA6C-A75AFFAC3547}"/>
-    <hyperlink ref="G48" r:id="rId52" xr:uid="{46F76A59-196E-49AD-9A97-78E4E5C31EB0}"/>
-    <hyperlink ref="G49" r:id="rId53" xr:uid="{43DD45FB-8A83-401A-88A5-B45573491AED}"/>
-    <hyperlink ref="G66" r:id="rId54" xr:uid="{F31F2BCF-6F0B-4FD5-BD21-19A524C163D9}"/>
-    <hyperlink ref="G51" r:id="rId55" xr:uid="{704B4E01-6CAB-4DF6-ACBA-A33544AD4CE0}"/>
-    <hyperlink ref="G65" r:id="rId56" xr:uid="{2A84C643-2E9D-4574-87DD-BE047174380C}"/>
-    <hyperlink ref="G61" r:id="rId57" xr:uid="{EF641F3A-F21F-480D-8ECD-EAB8C3FED787}"/>
-    <hyperlink ref="G50" r:id="rId58" xr:uid="{DD2A5884-DB10-45A9-BA26-84E0E05A1F3D}"/>
-    <hyperlink ref="G52" r:id="rId59" xr:uid="{57E61A04-606E-4446-8CF3-66D0E52E7DD5}"/>
-    <hyperlink ref="G53" r:id="rId60" xr:uid="{162D1EF2-1882-4F28-9834-DA5123BB4004}"/>
-    <hyperlink ref="G54" r:id="rId61" xr:uid="{A918A69D-90FD-4575-89F6-BF715138F13D}"/>
-    <hyperlink ref="G56" r:id="rId62" xr:uid="{FC89A150-04FD-4CA2-9979-4AC96A659200}"/>
-    <hyperlink ref="G55" r:id="rId63" xr:uid="{440B6CB8-F72E-4FC7-B619-D550263D55B3}"/>
-    <hyperlink ref="G57" r:id="rId64" xr:uid="{2CABEEBF-083A-481E-ACC6-58610BA24B97}"/>
-    <hyperlink ref="G58" r:id="rId65" xr:uid="{95075E14-BFAC-4762-80D8-14DAC7814EED}"/>
-    <hyperlink ref="G67" r:id="rId66" xr:uid="{B8133EA8-CB11-470C-BD8A-0918DED45540}"/>
-    <hyperlink ref="G68" r:id="rId67" location="Tennessee_Volunteers_Logo_PNG" xr:uid="{F19006C5-3D63-426E-AF22-F94EAAC5D92F}"/>
-    <hyperlink ref="G69" r:id="rId68" xr:uid="{0ED3021E-B9FC-4222-9DFD-4C461E64646E}"/>
-    <hyperlink ref="G70" r:id="rId69" xr:uid="{F09EEC3A-A27D-42BF-926D-B74B608B6982}"/>
-    <hyperlink ref="G41" r:id="rId70" xr:uid="{CAD326C2-2D39-48E2-B346-1ECC6344C2AC}"/>
-    <hyperlink ref="G118" r:id="rId71" xr:uid="{AFF9A11F-0391-45EC-96ED-DACA95F9F655}"/>
-    <hyperlink ref="G71" r:id="rId72" xr:uid="{C5BC2CC9-9D46-425E-98F2-EB4A4EE17372}"/>
-    <hyperlink ref="G72" r:id="rId73" xr:uid="{B145F603-B33F-4198-9F3E-9BCEF1DCF8E1}"/>
-    <hyperlink ref="G89" r:id="rId74" xr:uid="{C168A749-B084-4583-A0C9-63104DBFC00B}"/>
-    <hyperlink ref="G95" r:id="rId75" xr:uid="{8B20DACA-D7A5-417E-B267-101248971D20}"/>
-    <hyperlink ref="G75" r:id="rId76" xr:uid="{92616F7C-9B03-41D9-8F83-1CEAD9503033}"/>
-    <hyperlink ref="G77" r:id="rId77" xr:uid="{8AD422B7-FEC5-4213-8068-E0AF7FE7F633}"/>
-    <hyperlink ref="G93" r:id="rId78" xr:uid="{EB5B3FA5-C283-4E2F-BDF3-56A4E1DEF69A}"/>
-    <hyperlink ref="G98" r:id="rId79" xr:uid="{ED26E1A2-5080-4646-BBC8-69879871671F}"/>
-    <hyperlink ref="G80" r:id="rId80" xr:uid="{730AACE5-2C28-4F34-B8AB-A39A8EC56B0F}"/>
-    <hyperlink ref="G99" r:id="rId81" xr:uid="{93490068-C14A-43CF-B67F-E3ADA0A5197E}"/>
-    <hyperlink ref="G82" r:id="rId82" xr:uid="{C8C6DD4F-8AC2-4095-A1C7-06C0C3876197}"/>
-    <hyperlink ref="G121" r:id="rId83" xr:uid="{EA982AD7-B70D-4955-9F03-8A82F72ED889}"/>
-    <hyperlink ref="G76" r:id="rId84" xr:uid="{6E6B1EBB-61CE-4C4F-BE4D-008732A3DCDB}"/>
-    <hyperlink ref="G114" r:id="rId85" xr:uid="{471EF40F-D3BE-49F7-98DC-39DE9E1C3924}"/>
-    <hyperlink ref="G133" r:id="rId86" xr:uid="{CE3814B3-CE92-43C4-9D91-05D5A315B303}"/>
-    <hyperlink ref="G103" r:id="rId87" xr:uid="{C5F7D73F-59DE-4A1D-B0B1-87952A20C4DD}"/>
-    <hyperlink ref="G109" r:id="rId88" xr:uid="{D846212A-A585-4410-AFE5-E51B0BBC244E}"/>
-    <hyperlink ref="G110" r:id="rId89" xr:uid="{4229EFC9-0928-46EF-AAE4-44D6C22B6954}"/>
-    <hyperlink ref="G108" r:id="rId90" xr:uid="{8E0F137D-F887-492B-8022-DE208773DDFD}"/>
-    <hyperlink ref="G88" r:id="rId91" xr:uid="{4B246887-CC0E-48F5-8BDE-0DDEF7E39C25}"/>
-    <hyperlink ref="G116" r:id="rId92" xr:uid="{75173C3C-AAF9-4864-B109-966FB050D9FF}"/>
-    <hyperlink ref="G115" r:id="rId93" xr:uid="{B444BC1D-D6D1-492C-8898-B1F8BB4D2F15}"/>
-    <hyperlink ref="G85" r:id="rId94" xr:uid="{33388A3A-4EAC-4CE0-8D7B-91316BBCC0F2}"/>
-    <hyperlink ref="G107" r:id="rId95" xr:uid="{C2CE1D26-DBCC-4DFA-BEE8-4806F8A1C8A2}"/>
-    <hyperlink ref="G102" r:id="rId96" xr:uid="{2F7C6C4E-1445-4487-B601-CD5A8A79383E}"/>
-    <hyperlink ref="G104" r:id="rId97" xr:uid="{7222D6C3-7D27-447E-849E-F8246040B563}"/>
-    <hyperlink ref="G111" r:id="rId98" xr:uid="{7AB79E9B-0F3F-42C8-95F1-DCB935DBD100}"/>
-    <hyperlink ref="G84" r:id="rId99" xr:uid="{A18D4BCA-53EE-48FB-A752-D109B638BE8A}"/>
-    <hyperlink ref="G96" r:id="rId100" xr:uid="{FB7339B0-D8F3-4738-8BE2-140199AEA655}"/>
-    <hyperlink ref="G90" r:id="rId101" xr:uid="{58569C3D-CA82-4908-A49F-BEEBD70D51DB}"/>
-    <hyperlink ref="G79" r:id="rId102" xr:uid="{B4FF6E25-2F8E-44EB-92B3-3013D96B5789}"/>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{FCACA24D-3716-4AE8-B437-2FDFFE0A1B65}"/>
+    <hyperlink ref="G25" r:id="rId2" xr:uid="{57C76E65-5F9E-4AD7-91D4-420C9FA8CDE4}"/>
+    <hyperlink ref="G29" r:id="rId3" xr:uid="{B550D92F-9BDB-43A8-B5E4-78C9A530C41A}"/>
+    <hyperlink ref="G32" r:id="rId4" xr:uid="{B3A278EA-C5E5-4D53-A3BC-9128A5AB39E8}"/>
+    <hyperlink ref="G48" r:id="rId5" xr:uid="{2A0D34DA-E8C2-4825-BD0C-D0391E05FC7C}"/>
+    <hyperlink ref="G63" r:id="rId6" xr:uid="{7077E923-4C55-40EA-A16C-28FB56749153}"/>
+    <hyperlink ref="G64" r:id="rId7" xr:uid="{C2C451F4-DB82-4418-B759-F81B039E0FDC}"/>
+    <hyperlink ref="G108" r:id="rId8" xr:uid="{AD3E5C59-FA8A-4002-8DF7-42DE387C9B54}"/>
+    <hyperlink ref="G110" r:id="rId9" xr:uid="{F561456B-A341-40C3-93D1-553247955E66}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{DE17733C-CCB0-4137-ADDA-5D527DD8DFC7}"/>
+    <hyperlink ref="G21" r:id="rId11" xr:uid="{4FC7EDF5-0B79-44EF-B17F-110A85AEAD01}"/>
+    <hyperlink ref="G45" r:id="rId12" xr:uid="{7AFBE99E-DC19-41A2-9D58-274C31F07143}"/>
+    <hyperlink ref="G50" r:id="rId13" xr:uid="{D5F8C872-05EB-4328-B91F-34608E4DF9FC}"/>
+    <hyperlink ref="G78" r:id="rId14" xr:uid="{1EC020FB-9949-4013-8B85-A4858FB94EB9}"/>
+    <hyperlink ref="G81" r:id="rId15" xr:uid="{B737FF43-1892-479D-9D40-B6CB69066B1F}"/>
+    <hyperlink ref="G89" r:id="rId16" xr:uid="{4911B11A-D0C6-4210-9CC9-040EBB36906E}"/>
+    <hyperlink ref="G101" r:id="rId17" xr:uid="{6DFCB739-D5E6-4794-A7B9-8E4574CFF84C}"/>
+    <hyperlink ref="G109" r:id="rId18" xr:uid="{89E7B72F-0DEE-4B23-B546-8CEFBADF188F}"/>
+    <hyperlink ref="G113" r:id="rId19" xr:uid="{2243E5B6-B796-435C-B131-E8084259681E}"/>
+    <hyperlink ref="G71" r:id="rId20" xr:uid="{399F6ADE-CDB3-4025-9671-6F738E613AD7}"/>
+    <hyperlink ref="G55" r:id="rId21" xr:uid="{95E39D93-62DA-4BCC-B9EE-4CDAD6916BA3}"/>
+    <hyperlink ref="G36" r:id="rId22" xr:uid="{AD8D06F4-C324-4012-B2B4-C10A69A4B501}"/>
+    <hyperlink ref="G37" r:id="rId23" xr:uid="{A8192977-C131-48CE-80BB-BD0AF0166819}"/>
+    <hyperlink ref="G40" r:id="rId24" xr:uid="{16CA57C9-D000-4CD4-992D-A8B80A1AD843}"/>
+    <hyperlink ref="G72" r:id="rId25" xr:uid="{DD673EA8-B79E-4FCC-A3BD-E1DC8758A78C}"/>
+    <hyperlink ref="G43" r:id="rId26" xr:uid="{2F8D9A8F-0E20-4249-BA51-36A94BC52D0A}"/>
+    <hyperlink ref="G58" r:id="rId27" xr:uid="{64B8A9E3-AD8B-40DB-ABE6-784A2A933BB4}"/>
+    <hyperlink ref="G46" r:id="rId28" xr:uid="{70C98CDC-F116-46F3-9A05-D8316FB4BC2D}"/>
+    <hyperlink ref="G12" r:id="rId29" xr:uid="{8F7883EF-B0D9-4293-9A7A-8C8C2526AA9D}"/>
+    <hyperlink ref="G41" r:id="rId30" xr:uid="{A2907F68-0937-4A2E-910F-6EE47B2CCE0A}"/>
+    <hyperlink ref="G39" r:id="rId31" xr:uid="{8F4498FF-7B69-4423-A429-9296DDBCA630}"/>
+    <hyperlink ref="G38" r:id="rId32" xr:uid="{6810AA70-8E4F-4D56-871F-128364715883}"/>
+    <hyperlink ref="G53" r:id="rId33" xr:uid="{E5460E2F-F5EA-4116-8269-95C0A62A4D34}"/>
+    <hyperlink ref="G52" r:id="rId34" xr:uid="{B4DBCB76-0CD5-4D62-8D1B-37FFAE74DE6A}"/>
+    <hyperlink ref="G57" r:id="rId35" xr:uid="{3EE64604-74DB-468A-9CE7-D2DC05836395}"/>
+    <hyperlink ref="G59" r:id="rId36" xr:uid="{EEB4D0E3-663E-48DB-8A85-6F26C7DA0239}"/>
+    <hyperlink ref="G68" r:id="rId37" xr:uid="{7F69D6BA-8002-4B09-8180-855EBF5031EE}"/>
+    <hyperlink ref="G69" r:id="rId38" xr:uid="{99A023F2-4507-467D-8DAB-BEB7693CC468}"/>
+    <hyperlink ref="G77" r:id="rId39" xr:uid="{3E741944-62DF-4B40-9AB3-FD74FA4797F1}"/>
+    <hyperlink ref="G79" r:id="rId40" xr:uid="{42B3C4A7-E66A-46C9-9258-D4BD00021921}"/>
+    <hyperlink ref="G115" r:id="rId41" location="Wisconsin_Badgers_Logo_PNG" xr:uid="{D9416004-7DE9-49D1-819F-D98E12AFC0EE}"/>
+    <hyperlink ref="G4" r:id="rId42" xr:uid="{395ABA04-AE94-40E4-A747-26C098FB7678}"/>
+    <hyperlink ref="G5" r:id="rId43" xr:uid="{2F7C5843-B6E2-4A70-B77C-E0B25C7E722E}"/>
+    <hyperlink ref="G31" r:id="rId44" xr:uid="{3A20DD7E-DA2C-47BD-8A98-21BE4CE0CA01}"/>
+    <hyperlink ref="G34" r:id="rId45" xr:uid="{86028A57-87EB-4F30-AB5F-408BC93C91CD}"/>
+    <hyperlink ref="G7" r:id="rId46" xr:uid="{6B22DC29-5E4E-489E-8EE9-B999348A2EE4}"/>
+    <hyperlink ref="G73" r:id="rId47" xr:uid="{2D2084C0-3FBA-4BF3-A816-6B7E5C574536}"/>
+    <hyperlink ref="G90" r:id="rId48" xr:uid="{1D570B06-88E2-409F-84FC-3D01A21B53FF}"/>
+    <hyperlink ref="G93" r:id="rId49" xr:uid="{956F3549-2E44-4AF1-9D53-0B1F9EF53684}"/>
+    <hyperlink ref="G95" r:id="rId50" xr:uid="{5E70A809-7D84-4A32-B45D-DECEB0E92117}"/>
+    <hyperlink ref="G10" r:id="rId51" xr:uid="{C2BE4FDC-0B85-4459-BA6C-A75AFFAC3547}"/>
+    <hyperlink ref="G6" r:id="rId52" xr:uid="{46F76A59-196E-49AD-9A97-78E4E5C31EB0}"/>
+    <hyperlink ref="G18" r:id="rId53" xr:uid="{43DD45FB-8A83-401A-88A5-B45573491AED}"/>
+    <hyperlink ref="G74" r:id="rId54" xr:uid="{F31F2BCF-6F0B-4FD5-BD21-19A524C163D9}"/>
+    <hyperlink ref="G75" r:id="rId55" xr:uid="{704B4E01-6CAB-4DF6-ACBA-A33544AD4CE0}"/>
+    <hyperlink ref="G56" r:id="rId56" xr:uid="{2A84C643-2E9D-4574-87DD-BE047174380C}"/>
+    <hyperlink ref="G28" r:id="rId57" xr:uid="{EF641F3A-F21F-480D-8ECD-EAB8C3FED787}"/>
+    <hyperlink ref="G23" r:id="rId58" xr:uid="{DD2A5884-DB10-45A9-BA26-84E0E05A1F3D}"/>
+    <hyperlink ref="G76" r:id="rId59" xr:uid="{57E61A04-606E-4446-8CF3-66D0E52E7DD5}"/>
+    <hyperlink ref="G88" r:id="rId60" xr:uid="{162D1EF2-1882-4F28-9834-DA5123BB4004}"/>
+    <hyperlink ref="G100" r:id="rId61" xr:uid="{A918A69D-90FD-4575-89F6-BF715138F13D}"/>
+    <hyperlink ref="G104" r:id="rId62" xr:uid="{FC89A150-04FD-4CA2-9979-4AC96A659200}"/>
+    <hyperlink ref="G103" r:id="rId63" xr:uid="{440B6CB8-F72E-4FC7-B619-D550263D55B3}"/>
+    <hyperlink ref="G111" r:id="rId64" xr:uid="{2CABEEBF-083A-481E-ACC6-58610BA24B97}"/>
+    <hyperlink ref="G112" r:id="rId65" xr:uid="{95075E14-BFAC-4762-80D8-14DAC7814EED}"/>
+    <hyperlink ref="G85" r:id="rId66" xr:uid="{B8133EA8-CB11-470C-BD8A-0918DED45540}"/>
+    <hyperlink ref="G92" r:id="rId67" location="Tennessee_Volunteers_Logo_PNG" xr:uid="{F19006C5-3D63-426E-AF22-F94EAAC5D92F}"/>
+    <hyperlink ref="G94" r:id="rId68" xr:uid="{0ED3021E-B9FC-4222-9DFD-4C461E64646E}"/>
+    <hyperlink ref="G107" r:id="rId69" xr:uid="{F09EEC3A-A27D-42BF-926D-B74B608B6982}"/>
+    <hyperlink ref="G47" r:id="rId70" xr:uid="{CAD326C2-2D39-48E2-B346-1ECC6344C2AC}"/>
+    <hyperlink ref="G132" r:id="rId71" xr:uid="{AFF9A11F-0391-45EC-96ED-DACA95F9F655}"/>
+    <hyperlink ref="G9" r:id="rId72" xr:uid="{C5BC2CC9-9D46-425E-98F2-EB4A4EE17372}"/>
+    <hyperlink ref="G16" r:id="rId73" xr:uid="{B145F603-B33F-4198-9F3E-9BCEF1DCF8E1}"/>
+    <hyperlink ref="G97" r:id="rId74" xr:uid="{C168A749-B084-4583-A0C9-63104DBFC00B}"/>
+    <hyperlink ref="G13" r:id="rId75" xr:uid="{8B20DACA-D7A5-417E-B267-101248971D20}"/>
+    <hyperlink ref="G2" r:id="rId76" xr:uid="{92616F7C-9B03-41D9-8F83-1CEAD9503033}"/>
+    <hyperlink ref="G24" r:id="rId77" xr:uid="{8AD422B7-FEC5-4213-8068-E0AF7FE7F633}"/>
+    <hyperlink ref="G30" r:id="rId78" xr:uid="{EB5B3FA5-C283-4E2F-BDF3-56A4E1DEF69A}"/>
+    <hyperlink ref="G83" r:id="rId79" xr:uid="{ED26E1A2-5080-4646-BBC8-69879871671F}"/>
+    <hyperlink ref="G82" r:id="rId80" xr:uid="{730AACE5-2C28-4F34-B8AB-A39A8EC56B0F}"/>
+    <hyperlink ref="G105" r:id="rId81" xr:uid="{93490068-C14A-43CF-B67F-E3ADA0A5197E}"/>
+    <hyperlink ref="G116" r:id="rId82" xr:uid="{C8C6DD4F-8AC2-4095-A1C7-06C0C3876197}"/>
+    <hyperlink ref="G35" r:id="rId83" xr:uid="{EA982AD7-B70D-4955-9F03-8A82F72ED889}"/>
+    <hyperlink ref="G17" r:id="rId84" xr:uid="{6E6B1EBB-61CE-4C4F-BE4D-008732A3DCDB}"/>
+    <hyperlink ref="G54" r:id="rId85" xr:uid="{471EF40F-D3BE-49F7-98DC-39DE9E1C3924}"/>
+    <hyperlink ref="G131" r:id="rId86" xr:uid="{CE3814B3-CE92-43C4-9D91-05D5A315B303}"/>
+    <hyperlink ref="G11" r:id="rId87" xr:uid="{C5F7D73F-59DE-4A1D-B0B1-87952A20C4DD}"/>
+    <hyperlink ref="G67" r:id="rId88" xr:uid="{D846212A-A585-4410-AFE5-E51B0BBC244E}"/>
+    <hyperlink ref="G70" r:id="rId89" xr:uid="{4229EFC9-0928-46EF-AAE4-44D6C22B6954}"/>
+    <hyperlink ref="G51" r:id="rId90" xr:uid="{8E0F137D-F887-492B-8022-DE208773DDFD}"/>
+    <hyperlink ref="G86" r:id="rId91" xr:uid="{4B246887-CC0E-48F5-8BDE-0DDEF7E39C25}"/>
+    <hyperlink ref="G87" r:id="rId92" xr:uid="{75173C3C-AAF9-4864-B109-966FB050D9FF}"/>
+    <hyperlink ref="G66" r:id="rId93" xr:uid="{B444BC1D-D6D1-492C-8898-B1F8BB4D2F15}"/>
+    <hyperlink ref="G49" r:id="rId94" xr:uid="{33388A3A-4EAC-4CE0-8D7B-91316BBCC0F2}"/>
+    <hyperlink ref="G42" r:id="rId95" xr:uid="{C2CE1D26-DBCC-4DFA-BEE8-4806F8A1C8A2}"/>
+    <hyperlink ref="G3" r:id="rId96" xr:uid="{2F7C6C4E-1445-4487-B601-CD5A8A79383E}"/>
+    <hyperlink ref="G15" r:id="rId97" xr:uid="{7222D6C3-7D27-447E-849E-F8246040B563}"/>
+    <hyperlink ref="G96" r:id="rId98" xr:uid="{7AB79E9B-0F3F-42C8-95F1-DCB935DBD100}"/>
+    <hyperlink ref="G26" r:id="rId99" xr:uid="{A18D4BCA-53EE-48FB-A752-D109B638BE8A}"/>
+    <hyperlink ref="G33" r:id="rId100" xr:uid="{FB7339B0-D8F3-4738-8BE2-140199AEA655}"/>
+    <hyperlink ref="G98" r:id="rId101" xr:uid="{58569C3D-CA82-4908-A49F-BEEBD70D51DB}"/>
+    <hyperlink ref="G65" r:id="rId102" xr:uid="{B4FF6E25-2F8E-44EB-92B3-3013D96B5789}"/>
+    <hyperlink ref="G8" r:id="rId103" xr:uid="{3EDC6A8C-BDA0-4E78-AFF2-E18EC7B8E5BC}"/>
+    <hyperlink ref="G20" r:id="rId104" xr:uid="{DEFB8E46-A145-4585-B280-F5181159D405}"/>
+    <hyperlink ref="G27" r:id="rId105" xr:uid="{AC730625-1130-4C7A-8DD5-82B6B102BA94}"/>
+    <hyperlink ref="G133" r:id="rId106" xr:uid="{DCF5C696-2FE7-443D-A084-C6941CE73BC9}"/>
+    <hyperlink ref="G134" r:id="rId107" xr:uid="{8B2D127D-82C9-44FE-B19A-7F0AC7C9EFED}"/>
+    <hyperlink ref="G44" r:id="rId108" xr:uid="{B2FF31FD-E675-4CF7-8D32-BD9784C36F07}"/>
+    <hyperlink ref="G60" r:id="rId109" xr:uid="{845ADDC5-3216-4B3D-AD9D-0C966999709D}"/>
+    <hyperlink ref="G61" r:id="rId110" xr:uid="{7BA9C4AD-766E-47C5-849F-F4586D8FCD35}"/>
+    <hyperlink ref="G62" r:id="rId111" xr:uid="{D2952CCD-5299-44C9-B8F5-D00C8F8E0076}"/>
+    <hyperlink ref="G80" r:id="rId112" xr:uid="{F31FC38B-5E7F-429A-8523-BEDCFCF84D15}"/>
+    <hyperlink ref="G84" r:id="rId113" xr:uid="{C5F4F8ED-E0A2-4BD3-8414-FE6FED8185E4}"/>
+    <hyperlink ref="G91" r:id="rId114" xr:uid="{9C313FC9-DD00-45A2-A9EF-A1C9B6359676}"/>
+    <hyperlink ref="G118" r:id="rId115" xr:uid="{92B93D58-272D-46BC-AC40-E853657B4F1B}"/>
+    <hyperlink ref="G99" r:id="rId116" xr:uid="{C8E197EE-EE7A-4DFC-B14B-4099E939194B}"/>
+    <hyperlink ref="G19" r:id="rId117" xr:uid="{11E39234-3172-4B6C-9DE6-922A56FEF41D}"/>
+    <hyperlink ref="G102" r:id="rId118" xr:uid="{088E929A-5754-4AE8-A132-E1FCEB68361A}"/>
+    <hyperlink ref="G119" r:id="rId119" xr:uid="{F578FDEC-E600-455F-B1A0-8B4F32E181BA}"/>
+    <hyperlink ref="G106" r:id="rId120" xr:uid="{7B5FF705-AD83-45F8-9623-E9BEDA2CB285}"/>
+    <hyperlink ref="G114" r:id="rId121" xr:uid="{19AD7DFA-DD1B-4932-A9FB-B9DF1FF0C21D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId122"/>
 </worksheet>
 </file>